--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H2">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I2">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J2">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.393808333333333</v>
+        <v>4.021066666666667</v>
       </c>
       <c r="N2">
-        <v>4.181425</v>
+        <v>12.0632</v>
       </c>
       <c r="O2">
-        <v>0.01389847670528153</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="P2">
-        <v>0.01389847670528152</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="Q2">
-        <v>0.05392226299166666</v>
+        <v>0.2141901581333334</v>
       </c>
       <c r="R2">
-        <v>0.4853003669249999</v>
+        <v>1.9277114232</v>
       </c>
       <c r="S2">
-        <v>5.177152636400209E-06</v>
+        <v>6.318812145547482E-06</v>
       </c>
       <c r="T2">
-        <v>5.177152636400208E-06</v>
+        <v>6.318812145547481E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H3">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I3">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J3">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>29.295818</v>
       </c>
       <c r="O3">
-        <v>0.09737523548435455</v>
+        <v>0.06472716901243536</v>
       </c>
       <c r="P3">
-        <v>0.09737523548435453</v>
+        <v>0.06472716901243537</v>
       </c>
       <c r="Q3">
-        <v>0.3777891036553332</v>
+        <v>0.5201667791353334</v>
       </c>
       <c r="R3">
-        <v>3.400101932897999</v>
+        <v>4.681501012218</v>
       </c>
       <c r="S3">
-        <v>3.627206547868267E-05</v>
+        <v>1.534541171431697E-05</v>
       </c>
       <c r="T3">
-        <v>3.627206547868266E-05</v>
+        <v>1.534541171431698E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H4">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I4">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J4">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.943370666666667</v>
+        <v>16.16775866666667</v>
       </c>
       <c r="N4">
-        <v>23.830112</v>
+        <v>48.503276</v>
       </c>
       <c r="O4">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="P4">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="Q4">
-        <v>0.3073051809813332</v>
+        <v>0.8612080008973334</v>
       </c>
       <c r="R4">
-        <v>2.765746628831999</v>
+        <v>7.750872008076</v>
       </c>
       <c r="S4">
-        <v>2.950480450241538E-05</v>
+        <v>2.540645015316348E-05</v>
       </c>
       <c r="T4">
-        <v>2.950480450241538E-05</v>
+        <v>2.540645015316348E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H5">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I5">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J5">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.114546000000001</v>
+        <v>5.277637333333334</v>
       </c>
       <c r="N5">
-        <v>15.343638</v>
+        <v>15.832912</v>
       </c>
       <c r="O5">
-        <v>0.05100012443539522</v>
+        <v>0.03498177012783927</v>
       </c>
       <c r="P5">
-        <v>0.05100012443539521</v>
+        <v>0.03498177012783928</v>
       </c>
       <c r="Q5">
-        <v>0.197866441102</v>
+        <v>0.2811239078346667</v>
       </c>
       <c r="R5">
-        <v>1.780797969918</v>
+        <v>2.530115170512</v>
       </c>
       <c r="S5">
-        <v>1.899743650159226E-05</v>
+        <v>8.293421036290906E-06</v>
       </c>
       <c r="T5">
-        <v>1.899743650159226E-05</v>
+        <v>8.293421036290908E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H6">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I6">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J6">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.750823</v>
+        <v>108.7502723333333</v>
       </c>
       <c r="N6">
-        <v>215.252469</v>
+        <v>326.250817</v>
       </c>
       <c r="O6">
-        <v>0.7154693498390701</v>
+        <v>0.720829565926581</v>
       </c>
       <c r="P6">
-        <v>0.7154693498390701</v>
+        <v>0.7208295659265811</v>
       </c>
       <c r="Q6">
-        <v>2.775824089400999</v>
+        <v>5.792800756379666</v>
       </c>
       <c r="R6">
-        <v>24.982416804609</v>
+        <v>52.135206807417</v>
       </c>
       <c r="S6">
-        <v>0.0002665107917456379</v>
+        <v>0.0001708930984278126</v>
       </c>
       <c r="T6">
-        <v>0.0002665107917456379</v>
+        <v>0.0001708930984278126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03868699999999999</v>
+        <v>0.053267</v>
       </c>
       <c r="H7">
-        <v>0.116061</v>
+        <v>0.159801</v>
       </c>
       <c r="I7">
-        <v>0.00037249784607207</v>
+        <v>0.0002370783698475801</v>
       </c>
       <c r="J7">
-        <v>0.00037249784607207</v>
+        <v>0.00023707836984758</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.317150333333333</v>
+        <v>6.886210666666667</v>
       </c>
       <c r="N7">
-        <v>12.951451</v>
+        <v>20.658632</v>
       </c>
       <c r="O7">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213955</v>
       </c>
       <c r="P7">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213956</v>
       </c>
       <c r="Q7">
-        <v>0.1670175949456666</v>
+        <v>0.3668077835813334</v>
       </c>
       <c r="R7">
-        <v>1.503158354511</v>
+        <v>3.301270052232</v>
       </c>
       <c r="S7">
-        <v>1.603559520734155E-05</v>
+        <v>1.082117637044863E-05</v>
       </c>
       <c r="T7">
-        <v>1.603559520734155E-05</v>
+        <v>1.082117637044863E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H8">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I8">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J8">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.393808333333333</v>
+        <v>4.021066666666667</v>
       </c>
       <c r="N8">
-        <v>4.181425</v>
+        <v>12.0632</v>
       </c>
       <c r="O8">
-        <v>0.01389847670528153</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="P8">
-        <v>0.01389847670528152</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="Q8">
-        <v>9.529938217613889</v>
+        <v>37.13984641146667</v>
       </c>
       <c r="R8">
-        <v>85.769443958525</v>
+        <v>334.2586177032</v>
       </c>
       <c r="S8">
-        <v>0.000914982829553643</v>
+        <v>0.001095660578589496</v>
       </c>
       <c r="T8">
-        <v>0.0009149828295536428</v>
+        <v>0.001095660578589496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H9">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I9">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J9">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>29.295818</v>
       </c>
       <c r="O9">
-        <v>0.09737523548435455</v>
+        <v>0.06472716901243536</v>
       </c>
       <c r="P9">
-        <v>0.09737523548435453</v>
+        <v>0.06472716901243537</v>
       </c>
       <c r="Q9">
-        <v>66.76846662907045</v>
+        <v>90.19515394076866</v>
       </c>
       <c r="R9">
-        <v>600.916199661634</v>
+        <v>811.756385466918</v>
       </c>
       <c r="S9">
-        <v>0.006410534793217276</v>
+        <v>0.002660842305535228</v>
       </c>
       <c r="T9">
-        <v>0.006410534793217275</v>
+        <v>0.002660842305535229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H10">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I10">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J10">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.943370666666667</v>
+        <v>16.16775866666667</v>
       </c>
       <c r="N10">
-        <v>23.830112</v>
+        <v>48.503276</v>
       </c>
       <c r="O10">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="P10">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="Q10">
-        <v>54.31150745949511</v>
+        <v>149.3305442248307</v>
       </c>
       <c r="R10">
-        <v>488.803567135456</v>
+        <v>1343.974898023476</v>
       </c>
       <c r="S10">
-        <v>0.005214524547574146</v>
+        <v>0.004405392221437596</v>
       </c>
       <c r="T10">
-        <v>0.005214524547574146</v>
+        <v>0.004405392221437596</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H11">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I11">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J11">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.114546000000001</v>
+        <v>5.277637333333334</v>
       </c>
       <c r="N11">
-        <v>15.343638</v>
+        <v>15.832912</v>
       </c>
       <c r="O11">
-        <v>0.05100012443539522</v>
+        <v>0.03498177012783927</v>
       </c>
       <c r="P11">
-        <v>0.05100012443539521</v>
+        <v>0.03498177012783928</v>
       </c>
       <c r="Q11">
-        <v>34.96987801369934</v>
+        <v>48.74593142170134</v>
       </c>
       <c r="R11">
-        <v>314.7289021232941</v>
+        <v>438.713382795312</v>
       </c>
       <c r="S11">
-        <v>0.003357507383938921</v>
+        <v>0.00143805105798433</v>
       </c>
       <c r="T11">
-        <v>0.003357507383938921</v>
+        <v>0.00143805105798433</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H12">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I12">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J12">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>71.750823</v>
+        <v>108.7502723333333</v>
       </c>
       <c r="N12">
-        <v>215.252469</v>
+        <v>326.250817</v>
       </c>
       <c r="O12">
-        <v>0.7154693498390701</v>
+        <v>0.720829565926581</v>
       </c>
       <c r="P12">
-        <v>0.7154693498390701</v>
+        <v>0.7208295659265811</v>
       </c>
       <c r="Q12">
-        <v>490.584604712233</v>
+        <v>1004.451989106996</v>
       </c>
       <c r="R12">
-        <v>4415.261442410097</v>
+        <v>9040.067901962966</v>
       </c>
       <c r="S12">
-        <v>0.04710172086167462</v>
+        <v>0.02963228321834303</v>
       </c>
       <c r="T12">
-        <v>0.04710172086167462</v>
+        <v>0.02963228321834304</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.837337666666667</v>
+        <v>9.236317</v>
       </c>
       <c r="H13">
-        <v>20.512013</v>
+        <v>27.708951</v>
       </c>
       <c r="I13">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="J13">
-        <v>0.06583331748909883</v>
+        <v>0.0411085846350553</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.317150333333333</v>
+        <v>6.886210666666667</v>
       </c>
       <c r="N13">
-        <v>12.951451</v>
+        <v>20.658632</v>
       </c>
       <c r="O13">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213955</v>
       </c>
       <c r="P13">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213956</v>
       </c>
       <c r="Q13">
-        <v>29.51781458676255</v>
+        <v>63.60322464611467</v>
       </c>
       <c r="R13">
-        <v>265.660331280863</v>
+        <v>572.429021815032</v>
       </c>
       <c r="S13">
-        <v>0.002834047073140224</v>
+        <v>0.001876355253165617</v>
       </c>
       <c r="T13">
-        <v>0.002834047073140224</v>
+        <v>0.001876355253165617</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H14">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I14">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J14">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.393808333333333</v>
+        <v>4.021066666666667</v>
       </c>
       <c r="N14">
-        <v>4.181425</v>
+        <v>12.0632</v>
       </c>
       <c r="O14">
-        <v>0.01389847670528153</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="P14">
-        <v>0.01389847670528152</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="Q14">
-        <v>127.0887753848944</v>
+        <v>855.1279869821334</v>
       </c>
       <c r="R14">
-        <v>1143.79897846405</v>
+        <v>7696.151882839201</v>
       </c>
       <c r="S14">
-        <v>0.01220197284083688</v>
+        <v>0.02522708399503894</v>
       </c>
       <c r="T14">
-        <v>0.01220197284083688</v>
+        <v>0.02522708399503894</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H15">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I15">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J15">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>29.295818</v>
       </c>
       <c r="O15">
-        <v>0.09737523548435455</v>
+        <v>0.06472716901243536</v>
       </c>
       <c r="P15">
-        <v>0.09737523548435453</v>
+        <v>0.06472716901243537</v>
       </c>
       <c r="Q15">
-        <v>890.4068908371542</v>
+        <v>2076.702191237395</v>
       </c>
       <c r="R15">
-        <v>8013.662017534387</v>
+        <v>18690.31972113656</v>
       </c>
       <c r="S15">
-        <v>0.08548922331169402</v>
+        <v>0.06126467781263459</v>
       </c>
       <c r="T15">
-        <v>0.08548922331169402</v>
+        <v>0.0612646778126346</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H16">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I16">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J16">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.943370666666667</v>
+        <v>16.16775866666667</v>
       </c>
       <c r="N16">
-        <v>23.830112</v>
+        <v>48.503276</v>
       </c>
       <c r="O16">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="P16">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="Q16">
-        <v>724.2841259534435</v>
+        <v>3438.267521712218</v>
       </c>
       <c r="R16">
-        <v>6518.557133580992</v>
+        <v>30944.40769540996</v>
       </c>
       <c r="S16">
-        <v>0.06953954200257113</v>
+        <v>0.1014321421916702</v>
       </c>
       <c r="T16">
-        <v>0.06953954200257115</v>
+        <v>0.1014321421916702</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H17">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I17">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J17">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.114546000000001</v>
+        <v>5.277637333333334</v>
       </c>
       <c r="N17">
-        <v>15.343638</v>
+        <v>15.832912</v>
       </c>
       <c r="O17">
-        <v>0.05100012443539522</v>
+        <v>0.03498177012783927</v>
       </c>
       <c r="P17">
-        <v>0.05100012443539521</v>
+        <v>0.03498177012783928</v>
       </c>
       <c r="Q17">
-        <v>466.3491903762787</v>
+        <v>1122.352789195675</v>
       </c>
       <c r="R17">
-        <v>4197.142713386509</v>
+        <v>10101.17510276107</v>
       </c>
       <c r="S17">
-        <v>0.04477484449813945</v>
+        <v>0.03311046827625008</v>
       </c>
       <c r="T17">
-        <v>0.04477484449813945</v>
+        <v>0.03311046827625008</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H18">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I18">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J18">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>71.750823</v>
+        <v>108.7502723333333</v>
       </c>
       <c r="N18">
-        <v>215.252469</v>
+        <v>326.250817</v>
       </c>
       <c r="O18">
-        <v>0.7154693498390701</v>
+        <v>0.720829565926581</v>
       </c>
       <c r="P18">
-        <v>0.7154693498390701</v>
+        <v>0.7208295659265811</v>
       </c>
       <c r="Q18">
-        <v>6542.308587092905</v>
+        <v>23127.04791369507</v>
       </c>
       <c r="R18">
-        <v>58880.77728383615</v>
+        <v>208143.4312232556</v>
       </c>
       <c r="S18">
-        <v>0.6281362886243523</v>
+        <v>0.6822697761712544</v>
       </c>
       <c r="T18">
-        <v>0.6281362886243523</v>
+        <v>0.6822697761712545</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>91.18095533333333</v>
+        <v>212.661977</v>
       </c>
       <c r="H19">
-        <v>273.542866</v>
+        <v>637.9859310000001</v>
       </c>
       <c r="I19">
-        <v>0.8779359853299634</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="J19">
-        <v>0.8779359853299635</v>
+        <v>0.9465063704680865</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.317150333333333</v>
+        <v>6.886210666666667</v>
       </c>
       <c r="N19">
-        <v>12.951451</v>
+        <v>20.658632</v>
       </c>
       <c r="O19">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213955</v>
       </c>
       <c r="P19">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213956</v>
       </c>
       <c r="Q19">
-        <v>393.6418917109518</v>
+        <v>1464.435174411821</v>
       </c>
       <c r="R19">
-        <v>3542.777025398566</v>
+        <v>13179.91656970639</v>
       </c>
       <c r="S19">
-        <v>0.03779411405236963</v>
+        <v>0.04320222202123809</v>
       </c>
       <c r="T19">
-        <v>0.03779411405236963</v>
+        <v>0.04320222202123809</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H20">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I20">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J20">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.393808333333333</v>
+        <v>4.021066666666667</v>
       </c>
       <c r="N20">
-        <v>4.181425</v>
+        <v>12.0632</v>
       </c>
       <c r="O20">
-        <v>0.01389847670528153</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="P20">
-        <v>0.01389847670528152</v>
+        <v>0.0266528412086261</v>
       </c>
       <c r="Q20">
-        <v>8.085954178088889</v>
+        <v>10.97516771813333</v>
       </c>
       <c r="R20">
-        <v>72.77358760279999</v>
+        <v>98.77650946319999</v>
       </c>
       <c r="S20">
-        <v>0.0007763438822546025</v>
+        <v>0.000323777822852118</v>
       </c>
       <c r="T20">
-        <v>0.0007763438822546024</v>
+        <v>0.000323777822852118</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H21">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I21">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J21">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>29.295818</v>
       </c>
       <c r="O21">
-        <v>0.09737523548435455</v>
+        <v>0.06472716901243536</v>
       </c>
       <c r="P21">
-        <v>0.09737523548435453</v>
+        <v>0.06472716901243537</v>
       </c>
       <c r="Q21">
-        <v>56.65165391167644</v>
+        <v>26.65350122603533</v>
       </c>
       <c r="R21">
-        <v>509.8648852050879</v>
+        <v>239.881511034318</v>
       </c>
       <c r="S21">
-        <v>0.005439205313964561</v>
+        <v>0.0007863034825512209</v>
       </c>
       <c r="T21">
-        <v>0.00543920531396456</v>
+        <v>0.0007863034825512211</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H22">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I22">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J22">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.943370666666667</v>
+        <v>16.16775866666667</v>
       </c>
       <c r="N22">
-        <v>23.830112</v>
+        <v>48.503276</v>
       </c>
       <c r="O22">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="P22">
-        <v>0.07920798687439085</v>
+        <v>0.1071647749623786</v>
       </c>
       <c r="Q22">
-        <v>46.08218339219911</v>
+        <v>44.12855535669733</v>
       </c>
       <c r="R22">
-        <v>414.739650529792</v>
+        <v>397.156998210276</v>
       </c>
       <c r="S22">
-        <v>0.004424415519743147</v>
+        <v>0.001301834099117596</v>
       </c>
       <c r="T22">
-        <v>0.004424415519743147</v>
+        <v>0.001301834099117596</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H23">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I23">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J23">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.114546000000001</v>
+        <v>5.277637333333334</v>
       </c>
       <c r="N23">
-        <v>15.343638</v>
+        <v>15.832912</v>
       </c>
       <c r="O23">
-        <v>0.05100012443539522</v>
+        <v>0.03498177012783927</v>
       </c>
       <c r="P23">
-        <v>0.05100012443539521</v>
+        <v>0.03498177012783928</v>
       </c>
       <c r="Q23">
-        <v>29.67121347224533</v>
+        <v>14.40487305743467</v>
       </c>
       <c r="R23">
-        <v>267.040921250208</v>
+        <v>129.643857516912</v>
       </c>
       <c r="S23">
-        <v>0.00284877511681526</v>
+        <v>0.0004249573725685699</v>
       </c>
       <c r="T23">
-        <v>0.002848775116815259</v>
+        <v>0.00042495737256857</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H24">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I24">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J24">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.750823</v>
+        <v>108.7502723333333</v>
       </c>
       <c r="N24">
-        <v>215.252469</v>
+        <v>326.250817</v>
       </c>
       <c r="O24">
-        <v>0.7154693498390701</v>
+        <v>0.720829565926581</v>
       </c>
       <c r="P24">
-        <v>0.7154693498390701</v>
+        <v>0.7208295659265811</v>
       </c>
       <c r="Q24">
-        <v>416.2508238350559</v>
+        <v>296.8248420612296</v>
       </c>
       <c r="R24">
-        <v>3746.257414515504</v>
+        <v>2671.423578551067</v>
       </c>
       <c r="S24">
-        <v>0.03996482956129752</v>
+        <v>0.008756613438555669</v>
       </c>
       <c r="T24">
-        <v>0.03996482956129752</v>
+        <v>0.008756613438555669</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.801338666666666</v>
+        <v>2.729417</v>
       </c>
       <c r="H25">
-        <v>17.404016</v>
+        <v>8.188250999999999</v>
       </c>
       <c r="I25">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="J25">
-        <v>0.05585819933486567</v>
+        <v>0.01214796652701058</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.317150333333333</v>
+        <v>6.886210666666667</v>
       </c>
       <c r="N25">
-        <v>12.951451</v>
+        <v>20.658632</v>
       </c>
       <c r="O25">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213955</v>
       </c>
       <c r="P25">
-        <v>0.04304882666150777</v>
+        <v>0.04564387876213956</v>
       </c>
       <c r="Q25">
-        <v>25.04525115857955</v>
+        <v>18.79534045918133</v>
       </c>
       <c r="R25">
-        <v>225.407260427216</v>
+        <v>169.158064132632</v>
       </c>
       <c r="S25">
-        <v>0.002404629940790581</v>
+        <v>0.0005544803113654001</v>
       </c>
       <c r="T25">
-        <v>0.002404629940790581</v>
+        <v>0.0005544803113654003</v>
       </c>
     </row>
   </sheetData>
